--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264383.5338055204</v>
+        <v>278109.8919429386</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-6750.748617138401</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-6750.748617138401</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-6750.748617138401</v>
       </c>
       <c r="E6" t="n">
-        <v>-65112.03314321816</v>
+        <v>-65112.03314321822</v>
       </c>
       <c r="F6" t="n">
         <v>67987.96685678184</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278109.8919429386</v>
+        <v>159996.9320708881</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22317222.39794713</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3858996.412135136</v>
+        <v>5951743.584537335</v>
       </c>
     </row>
     <row r="11">
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>349399.0679772008</v>
+        <v>1074512.901162176</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>349399.0679772008</v>
+        <v>1074512.901162176</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>349399.0679772008</v>
+        <v>1074512.901162176</v>
       </c>
     </row>
     <row r="5">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118258.146084591</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="C2" t="n">
-        <v>118258.146084591</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="D2" t="n">
-        <v>118258.146084591</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="E2" t="n">
         <v>125752.60296485</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91381.29470172945</v>
+        <v>436273.8797192482</v>
       </c>
       <c r="C4" t="n">
-        <v>91381.29470172945</v>
+        <v>436273.8797192482</v>
       </c>
       <c r="D4" t="n">
-        <v>91381.29470172945</v>
+        <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
         <v>54153.02400305979</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-19343.62920355815</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-19343.6292035582</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-19343.6292035582</v>
       </c>
       <c r="E6" t="n">
-        <v>-65112.03314321822</v>
+        <v>-79922.04998233213</v>
       </c>
       <c r="F6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="G6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="H6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="I6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="J6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="K6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="L6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="M6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="N6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="O6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
       <c r="P6" t="n">
-        <v>67987.96685678184</v>
+        <v>53177.95001766794</v>
       </c>
     </row>
   </sheetData>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,34 +27578,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,31 +27615,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,31 +27660,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,34 +27773,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,34 +27815,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,31 +27852,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,34 +28010,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,34 +28052,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
